--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_11_14.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_11_14.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-341912.1599244528</v>
+        <v>-344525.4461901286</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673432</v>
+        <v>603248.4937673433</v>
       </c>
     </row>
     <row r="9">
@@ -659,25 +659,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>155.4732237368895</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>117.9980763964702</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>11.54770277295399</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H2" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -710,10 +710,10 @@
         <v>123.4522153987944</v>
       </c>
       <c r="T2" t="n">
-        <v>206.6581849802338</v>
+        <v>206.4025503703327</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -756,7 +756,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I3" t="n">
-        <v>20.22295923705015</v>
+        <v>20.22295923705013</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -814,28 +814,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>152.5801449806291</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>124.0373038671706</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,13 +862,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>286.2271541212006</v>
@@ -877,7 +877,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -896,25 +896,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>411.547702772954</v>
+        <v>230.1963977694867</v>
       </c>
       <c r="H5" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -947,16 +947,16 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>5.09286364916129</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -993,7 +993,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I6" t="n">
-        <v>20.22295923705015</v>
+        <v>20.22295923705013</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1051,28 +1051,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>111.3708201521233</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I7" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1108,19 +1108,19 @@
         <v>220.7486959972119</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>232.6607698262061</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1130,22 +1130,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>92.18494954616979</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>411.547702772954</v>
+        <v>14.03048721280687</v>
       </c>
       <c r="H8" t="n">
         <v>301.0185525624054</v>
@@ -1184,13 +1184,13 @@
         <v>123.4522153987944</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -1297,19 +1297,19 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>17.29123938213248</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1339,16 +1339,16 @@
         <v>101.5575724195736</v>
       </c>
       <c r="S10" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>220.7486959972119</v>
       </c>
       <c r="U10" t="n">
-        <v>127.8620221600735</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -1357,7 +1357,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1373,10 +1373,10 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.6830416206816</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722614</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
@@ -1534,16 +1534,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462252</v>
       </c>
       <c r="I13" t="n">
         <v>81.26583631856553</v>
@@ -1576,22 +1576,22 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>32.27552175740252</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>250.9728823639215</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1610,7 +1610,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.6830416206824</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
@@ -1670,7 +1670,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784686</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -1762,7 +1762,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>65.0619811918376</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -1780,7 +1780,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>55.52079624060383</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1810,13 +1810,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
         <v>286.1844743892441</v>
@@ -1825,7 +1825,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.5229983365927</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -1841,7 +1841,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -1999,28 +1999,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2053,7 +2053,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>164.3759324426021</v>
       </c>
       <c r="U19" t="n">
         <v>286.1844743892441</v>
@@ -2062,7 +2062,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>35.03063761899501</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -2081,7 +2081,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
@@ -2245,16 +2245,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>114.720561100775</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>25.52471385612597</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2284,13 +2284,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
@@ -2305,7 +2305,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2384,7 +2384,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560531</v>
       </c>
     </row>
     <row r="24">
@@ -2479,19 +2479,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>143.7703193541476</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2530,10 +2530,10 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>194.9085394018857</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2710,7 +2710,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>113.5262552810678</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -2719,7 +2719,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
@@ -2767,7 +2767,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2776,10 +2776,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>80.5697888787481</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2950,25 +2950,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3001,10 +3001,10 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>27.24739666248491</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>286.1844743892441</v>
+        <v>164.5981994227929</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3187,7 +3187,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
@@ -3196,13 +3196,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3232,22 +3232,22 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>217.4054503272883</v>
+        <v>192.7715349547537</v>
       </c>
       <c r="U34" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>252.757348783817</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -3421,25 +3421,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>43.55707494718542</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3472,7 +3472,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>35.41770597126702</v>
       </c>
       <c r="T37" t="n">
         <v>217.4054503272883</v>
@@ -3503,7 +3503,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
         <v>354.683041620683</v>
@@ -3515,7 +3515,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187865</v>
       </c>
       <c r="H38" t="n">
         <v>283.1540821444137</v>
@@ -3664,7 +3664,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>108.3764982651491</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
@@ -3679,7 +3679,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3709,13 +3709,13 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>154.4892550148504</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3724,7 +3724,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -3737,7 +3737,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
@@ -3904,7 +3904,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E43" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545299</v>
       </c>
       <c r="F43" t="n">
         <v>121.1364005308915</v>
@@ -3913,10 +3913,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H43" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I43" t="n">
-        <v>56.98118882652579</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,13 +3943,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.09059921808293</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S43" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T43" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U43" t="n">
         <v>261.8998268972044</v>
@@ -4150,10 +4150,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H46" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I46" t="n">
-        <v>56.9811888265258</v>
+        <v>56.98118882652581</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4186,7 +4186,7 @@
         <v>156.7416385096049</v>
       </c>
       <c r="T46" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U46" t="n">
         <v>261.8998268972044</v>
@@ -4304,37 +4304,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1489.525984198214</v>
+        <v>1236.203140240072</v>
       </c>
       <c r="C2" t="n">
-        <v>1120.563467257802</v>
+        <v>1236.203140240072</v>
       </c>
       <c r="D2" t="n">
-        <v>963.5198069175098</v>
+        <v>877.9374416333219</v>
       </c>
       <c r="E2" t="n">
-        <v>844.329830759459</v>
+        <v>877.9374416333219</v>
       </c>
       <c r="F2" t="n">
-        <v>433.3439259698515</v>
+        <v>466.9515368437143</v>
       </c>
       <c r="G2" t="n">
-        <v>421.6795797345444</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H2" t="n">
-        <v>117.6204357321147</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I2" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J2" t="n">
         <v>187.5281822362817</v>
       </c>
       <c r="K2" t="n">
-        <v>442.5171852816086</v>
+        <v>442.5171852816081</v>
       </c>
       <c r="L2" t="n">
-        <v>795.7553530872917</v>
+        <v>795.7553530872915</v>
       </c>
       <c r="M2" t="n">
         <v>1220.470313923562</v>
@@ -4355,25 +4355,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S2" t="n">
-        <v>2437.640120926625</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T2" t="n">
-        <v>2228.89447953245</v>
+        <v>2229.152696310128</v>
       </c>
       <c r="U2" t="n">
-        <v>2228.89447953245</v>
+        <v>1975.571635574308</v>
       </c>
       <c r="V2" t="n">
-        <v>2228.89447953245</v>
+        <v>1975.571635574308</v>
       </c>
       <c r="W2" t="n">
-        <v>1876.125824262336</v>
+        <v>1622.802980304194</v>
       </c>
       <c r="X2" t="n">
-        <v>1876.125824262336</v>
+        <v>1622.802980304194</v>
       </c>
       <c r="Y2" t="n">
-        <v>1876.125824262336</v>
+        <v>1622.802980304194</v>
       </c>
     </row>
     <row r="3">
@@ -4401,34 +4401,34 @@
         <v>165.4432786182524</v>
       </c>
       <c r="H3" t="n">
-        <v>71.67401812057901</v>
+        <v>71.67401812057915</v>
       </c>
       <c r="I3" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J3" t="n">
-        <v>113.5972052500113</v>
+        <v>143.6627691908472</v>
       </c>
       <c r="K3" t="n">
-        <v>298.3188265310613</v>
+        <v>590.20497511435</v>
       </c>
       <c r="L3" t="n">
-        <v>932.4978103100997</v>
+        <v>884.9085321458217</v>
       </c>
       <c r="M3" t="n">
-        <v>1295.75982926932</v>
+        <v>1248.170551105042</v>
       </c>
       <c r="N3" t="n">
-        <v>1683.044957866265</v>
+        <v>1635.455679701987</v>
       </c>
       <c r="O3" t="n">
-        <v>2199.840679460312</v>
+        <v>1967.526114878149</v>
       </c>
       <c r="P3" t="n">
-        <v>2447.023413292609</v>
+        <v>2214.708848710446</v>
       </c>
       <c r="Q3" t="n">
-        <v>2562.339328400155</v>
+        <v>2538.001278676482</v>
       </c>
       <c r="R3" t="n">
         <v>2562.339328400155</v>
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>198.1367340659135</v>
+        <v>580.4218721597736</v>
       </c>
       <c r="C4" t="n">
-        <v>198.1367340659135</v>
+        <v>580.4218721597736</v>
       </c>
       <c r="D4" t="n">
-        <v>198.1367340659135</v>
+        <v>430.3052327474378</v>
       </c>
       <c r="E4" t="n">
-        <v>198.1367340659135</v>
+        <v>282.3921391650447</v>
       </c>
       <c r="F4" t="n">
-        <v>51.2467865680031</v>
+        <v>282.3921391650447</v>
       </c>
       <c r="G4" t="n">
-        <v>51.2467865680031</v>
+        <v>282.3921391650447</v>
       </c>
       <c r="H4" t="n">
-        <v>51.2467865680031</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="I4" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J4" t="n">
-        <v>76.71595955312196</v>
+        <v>76.71595955312199</v>
       </c>
       <c r="K4" t="n">
         <v>248.4064713020475</v>
       </c>
       <c r="L4" t="n">
-        <v>523.6376499693233</v>
+        <v>523.6376499693234</v>
       </c>
       <c r="M4" t="n">
-        <v>824.2194607096585</v>
+        <v>824.2194607096587</v>
       </c>
       <c r="N4" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O4" t="n">
-        <v>1383.126566999034</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P4" t="n">
-        <v>1582.113182171023</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q4" t="n">
         <v>1636.446120074497</v>
       </c>
       <c r="R4" t="n">
-        <v>1636.446120074497</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="S4" t="n">
-        <v>1636.446120074497</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="T4" t="n">
-        <v>1413.467639269232</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="U4" t="n">
-        <v>1124.34930177307</v>
+        <v>1244.744376093917</v>
       </c>
       <c r="V4" t="n">
-        <v>869.6648135671834</v>
+        <v>990.0598878880306</v>
       </c>
       <c r="W4" t="n">
-        <v>580.2476435302228</v>
+        <v>990.0598878880306</v>
       </c>
       <c r="X4" t="n">
-        <v>352.2580926322055</v>
+        <v>762.0703369900133</v>
       </c>
       <c r="Y4" t="n">
-        <v>352.2580926322055</v>
+        <v>762.0703369900133</v>
       </c>
     </row>
     <row r="5">
@@ -4541,37 +4541,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1588.383781964454</v>
+        <v>1449.505074804839</v>
       </c>
       <c r="C5" t="n">
-        <v>1588.383781964454</v>
+        <v>1080.542557864427</v>
       </c>
       <c r="D5" t="n">
-        <v>1230.118083357703</v>
+        <v>1080.542557864427</v>
       </c>
       <c r="E5" t="n">
-        <v>844.329830759459</v>
+        <v>694.7543052661831</v>
       </c>
       <c r="F5" t="n">
-        <v>837.3843300102556</v>
+        <v>283.7684004765756</v>
       </c>
       <c r="G5" t="n">
-        <v>421.6795797345444</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="H5" t="n">
-        <v>117.6204357321147</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I5" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J5" t="n">
         <v>187.5281822362817</v>
       </c>
       <c r="K5" t="n">
-        <v>442.5171852816086</v>
+        <v>442.5171852816081</v>
       </c>
       <c r="L5" t="n">
-        <v>795.7553530872917</v>
+        <v>795.7553530872914</v>
       </c>
       <c r="M5" t="n">
         <v>1220.470313923562</v>
@@ -4595,22 +4595,22 @@
         <v>2562.339328400155</v>
       </c>
       <c r="T5" t="n">
-        <v>2353.59368700598</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="U5" t="n">
-        <v>2353.59368700598</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="V5" t="n">
-        <v>2348.449380289655</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="W5" t="n">
-        <v>2348.449380289655</v>
+        <v>2209.570673130041</v>
       </c>
       <c r="X5" t="n">
-        <v>1974.983622028575</v>
+        <v>1836.104914868961</v>
       </c>
       <c r="Y5" t="n">
-        <v>1974.983622028575</v>
+        <v>1836.104914868961</v>
       </c>
     </row>
     <row r="6">
@@ -4620,49 +4620,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>931.3041410966389</v>
+        <v>931.3041410966385</v>
       </c>
       <c r="C6" t="n">
-        <v>756.8511118155119</v>
+        <v>756.8511118155116</v>
       </c>
       <c r="D6" t="n">
-        <v>607.9167021542605</v>
+        <v>607.9167021542603</v>
       </c>
       <c r="E6" t="n">
-        <v>448.679247148805</v>
+        <v>448.6792471488048</v>
       </c>
       <c r="F6" t="n">
-        <v>302.14468917569</v>
+        <v>302.1446891756898</v>
       </c>
       <c r="G6" t="n">
         <v>165.443278618252</v>
       </c>
       <c r="H6" t="n">
-        <v>71.67401812057901</v>
+        <v>71.67401812057899</v>
       </c>
       <c r="I6" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J6" t="n">
         <v>113.5972052500113</v>
       </c>
       <c r="K6" t="n">
-        <v>298.3188265310613</v>
+        <v>560.1394111735141</v>
       </c>
       <c r="L6" t="n">
-        <v>821.9680821844939</v>
+        <v>884.9085321458213</v>
       </c>
       <c r="M6" t="n">
-        <v>1456.147065963532</v>
+        <v>1248.170551105041</v>
       </c>
       <c r="N6" t="n">
-        <v>1843.432194560478</v>
+        <v>1635.455679701987</v>
       </c>
       <c r="O6" t="n">
-        <v>2175.502629736639</v>
+        <v>1967.526114878148</v>
       </c>
       <c r="P6" t="n">
-        <v>2422.685363568936</v>
+        <v>2214.708848710445</v>
       </c>
       <c r="Q6" t="n">
         <v>2538.001278676482</v>
@@ -4677,16 +4677,16 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U6" t="n">
-        <v>2004.520742047138</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V6" t="n">
         <v>1769.368633815395</v>
       </c>
       <c r="W6" t="n">
-        <v>1515.131277087194</v>
+        <v>1515.131277087193</v>
       </c>
       <c r="X6" t="n">
-        <v>1307.279776881661</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y6" t="n">
         <v>1099.519478116707</v>
@@ -4699,28 +4699,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>305.0150268210029</v>
+        <v>981.8280128167644</v>
       </c>
       <c r="C7" t="n">
-        <v>305.0150268210029</v>
+        <v>812.8918298888575</v>
       </c>
       <c r="D7" t="n">
-        <v>305.0150268210029</v>
+        <v>662.7751904765217</v>
       </c>
       <c r="E7" t="n">
-        <v>157.1019332386098</v>
+        <v>514.8620968941286</v>
       </c>
       <c r="F7" t="n">
-        <v>157.1019332386098</v>
+        <v>367.9721493962183</v>
       </c>
       <c r="G7" t="n">
-        <v>157.1019332386098</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="H7" t="n">
-        <v>157.1019332386098</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I7" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J7" t="n">
         <v>76.71595955312198</v>
@@ -4738,10 +4738,10 @@
         <v>1123.088724245823</v>
       </c>
       <c r="O7" t="n">
-        <v>1383.126566999034</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P7" t="n">
-        <v>1582.113182171023</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q7" t="n">
         <v>1636.446120074497</v>
@@ -4756,19 +4756,19 @@
         <v>1216.838891429094</v>
       </c>
       <c r="U7" t="n">
-        <v>927.7205539329314</v>
+        <v>1216.838891429094</v>
       </c>
       <c r="V7" t="n">
-        <v>927.7205539329314</v>
+        <v>1216.838891429094</v>
       </c>
       <c r="W7" t="n">
-        <v>638.3033838959707</v>
+        <v>981.8280128167644</v>
       </c>
       <c r="X7" t="n">
-        <v>638.3033838959707</v>
+        <v>981.8280128167644</v>
       </c>
       <c r="Y7" t="n">
-        <v>417.5108047524405</v>
+        <v>981.8280128167644</v>
       </c>
     </row>
     <row r="8">
@@ -4778,19 +4778,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1660.900948886693</v>
+        <v>1507.692260213068</v>
       </c>
       <c r="C8" t="n">
-        <v>1567.784838233996</v>
+        <v>1138.729743272656</v>
       </c>
       <c r="D8" t="n">
-        <v>1567.784838233996</v>
+        <v>780.4640446659059</v>
       </c>
       <c r="E8" t="n">
-        <v>1181.996585635751</v>
+        <v>780.4640446659059</v>
       </c>
       <c r="F8" t="n">
-        <v>771.0106808461439</v>
+        <v>369.4781398762984</v>
       </c>
       <c r="G8" t="n">
         <v>355.3059305704328</v>
@@ -4832,22 +4832,22 @@
         <v>2437.640120926626</v>
       </c>
       <c r="T8" t="n">
-        <v>2437.640120926626</v>
+        <v>2228.894479532451</v>
       </c>
       <c r="U8" t="n">
-        <v>2437.640120926626</v>
+        <v>2228.894479532451</v>
       </c>
       <c r="V8" t="n">
-        <v>2437.640120926626</v>
+        <v>1897.83159218888</v>
       </c>
       <c r="W8" t="n">
-        <v>2437.640120926626</v>
+        <v>1897.83159218888</v>
       </c>
       <c r="X8" t="n">
-        <v>2437.640120926626</v>
+        <v>1897.83159218888</v>
       </c>
       <c r="Y8" t="n">
-        <v>2047.500788950814</v>
+        <v>1507.692260213068</v>
       </c>
     </row>
     <row r="9">
@@ -4857,10 +4857,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>931.3041410966389</v>
+        <v>931.3041410966388</v>
       </c>
       <c r="C9" t="n">
-        <v>756.8511118155119</v>
+        <v>756.8511118155118</v>
       </c>
       <c r="D9" t="n">
         <v>607.9167021542605</v>
@@ -4869,10 +4869,10 @@
         <v>448.679247148805</v>
       </c>
       <c r="F9" t="n">
-        <v>302.14468917569</v>
+        <v>302.1446891756899</v>
       </c>
       <c r="G9" t="n">
-        <v>165.4432786182524</v>
+        <v>165.443278618252</v>
       </c>
       <c r="H9" t="n">
         <v>71.67401812057901</v>
@@ -4881,28 +4881,28 @@
         <v>51.24678656800311</v>
       </c>
       <c r="J9" t="n">
-        <v>113.5972052500114</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K9" t="n">
-        <v>298.3188265310613</v>
+        <v>684.9695361605188</v>
       </c>
       <c r="L9" t="n">
-        <v>593.0223835625329</v>
+        <v>979.6730931919906</v>
       </c>
       <c r="M9" t="n">
-        <v>956.284402521753</v>
+        <v>1342.935112151211</v>
       </c>
       <c r="N9" t="n">
-        <v>1590.463386300792</v>
+        <v>1843.432194560477</v>
       </c>
       <c r="O9" t="n">
-        <v>2199.840679460312</v>
+        <v>2175.502629736639</v>
       </c>
       <c r="P9" t="n">
-        <v>2447.023413292609</v>
+        <v>2422.685363568936</v>
       </c>
       <c r="Q9" t="n">
-        <v>2562.339328400155</v>
+        <v>2538.001278676482</v>
       </c>
       <c r="R9" t="n">
         <v>2562.339328400155</v>
@@ -4920,7 +4920,7 @@
         <v>1769.368633815395</v>
       </c>
       <c r="W9" t="n">
-        <v>1515.131277087194</v>
+        <v>1515.131277087193</v>
       </c>
       <c r="X9" t="n">
         <v>1307.279776881661</v>
@@ -4936,25 +4936,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>514.036292340028</v>
+        <v>364.3415305681976</v>
       </c>
       <c r="C10" t="n">
-        <v>514.036292340028</v>
+        <v>364.3415305681976</v>
       </c>
       <c r="D10" t="n">
-        <v>514.036292340028</v>
+        <v>364.3415305681976</v>
       </c>
       <c r="E10" t="n">
-        <v>366.1231987576349</v>
+        <v>364.3415305681976</v>
       </c>
       <c r="F10" t="n">
-        <v>219.2332512597245</v>
+        <v>217.4515830702873</v>
       </c>
       <c r="G10" t="n">
-        <v>51.24678656800311</v>
+        <v>217.4515830702873</v>
       </c>
       <c r="H10" t="n">
-        <v>51.24678656800311</v>
+        <v>68.7126849337935</v>
       </c>
       <c r="I10" t="n">
         <v>51.24678656800311</v>
@@ -4987,25 +4987,25 @@
         <v>1533.86271359008</v>
       </c>
       <c r="S10" t="n">
-        <v>1337.233965749941</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="T10" t="n">
-        <v>1114.255484944676</v>
+        <v>1310.884232784815</v>
       </c>
       <c r="U10" t="n">
-        <v>985.1019272072283</v>
+        <v>1310.884232784815</v>
       </c>
       <c r="V10" t="n">
-        <v>985.1019272072283</v>
+        <v>1056.199744578928</v>
       </c>
       <c r="W10" t="n">
-        <v>695.6847571702677</v>
+        <v>766.7825745419675</v>
       </c>
       <c r="X10" t="n">
-        <v>695.6847571702677</v>
+        <v>766.7825745419675</v>
       </c>
       <c r="Y10" t="n">
-        <v>695.6847571702677</v>
+        <v>545.9899953984374</v>
       </c>
     </row>
     <row r="11">
@@ -5015,13 +5015,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E11" t="n">
         <v>1204.759558406469</v>
@@ -5033,58 +5033,58 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K11" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="12">
@@ -5112,25 +5112,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797186</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>93.81666304797186</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L12" t="n">
-        <v>589.1422692637306</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="M12" t="n">
-        <v>1186.520756890282</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="N12" t="n">
-        <v>1814.118720444889</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O12" t="n">
         <v>1896.176478190825</v>
@@ -5173,28 +5173,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>810.0653816078141</v>
+        <v>950.7540666811345</v>
       </c>
       <c r="C13" t="n">
-        <v>641.1291986799072</v>
+        <v>781.8178837532276</v>
       </c>
       <c r="D13" t="n">
-        <v>491.0125592675714</v>
+        <v>631.7012443408919</v>
       </c>
       <c r="E13" t="n">
-        <v>343.0994656851783</v>
+        <v>631.7012443408919</v>
       </c>
       <c r="F13" t="n">
-        <v>343.0994656851783</v>
+        <v>484.8112968429816</v>
       </c>
       <c r="G13" t="n">
-        <v>175.9033664000582</v>
+        <v>317.6151975578615</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782957</v>
@@ -5224,25 +5224,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S13" t="n">
-        <v>2264.108249235165</v>
+        <v>2414.361546451571</v>
       </c>
       <c r="T13" t="n">
-        <v>2044.506784258106</v>
+        <v>2414.361546451571</v>
       </c>
       <c r="U13" t="n">
-        <v>1755.431557602304</v>
+        <v>2125.286319795769</v>
       </c>
       <c r="V13" t="n">
-        <v>1501.923595618545</v>
+        <v>1870.601831589882</v>
       </c>
       <c r="W13" t="n">
-        <v>1212.506425581584</v>
+        <v>1581.184661552922</v>
       </c>
       <c r="X13" t="n">
-        <v>1212.506425581584</v>
+        <v>1353.195110654904</v>
       </c>
       <c r="Y13" t="n">
-        <v>991.7138464380538</v>
+        <v>1132.402531511374</v>
       </c>
     </row>
     <row r="14">
@@ -5273,25 +5273,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K14" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P14" t="n">
         <v>4194.413870694707</v>
@@ -5318,7 +5318,7 @@
         <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5361,19 +5361,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="L15" t="n">
-        <v>589.1422692637306</v>
+        <v>119.290296770379</v>
       </c>
       <c r="M15" t="n">
-        <v>1186.520756890282</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="N15" t="n">
-        <v>1577.52840832642</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O15" t="n">
-        <v>2129.438138565707</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P15" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5410,22 +5410,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>849.3843576263199</v>
+        <v>763.7541388327643</v>
       </c>
       <c r="C16" t="n">
-        <v>680.448174698413</v>
+        <v>594.8179559048574</v>
       </c>
       <c r="D16" t="n">
-        <v>530.3315352860773</v>
+        <v>444.7013164925216</v>
       </c>
       <c r="E16" t="n">
-        <v>382.4184417036842</v>
+        <v>296.7882229101285</v>
       </c>
       <c r="F16" t="n">
-        <v>235.5284942057738</v>
+        <v>149.8982754122182</v>
       </c>
       <c r="G16" t="n">
-        <v>235.5284942057738</v>
+        <v>149.8982754122182</v>
       </c>
       <c r="H16" t="n">
         <v>93.81666304797187</v>
@@ -5458,28 +5458,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T16" t="n">
-        <v>2197.062545487567</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U16" t="n">
-        <v>1907.987318831765</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V16" t="n">
-        <v>1653.302830625878</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W16" t="n">
-        <v>1363.885660588915</v>
+        <v>1394.184733704551</v>
       </c>
       <c r="X16" t="n">
-        <v>1135.896109690898</v>
+        <v>1166.195182806534</v>
       </c>
       <c r="Y16" t="n">
-        <v>915.103530547368</v>
+        <v>945.402603663004</v>
       </c>
     </row>
     <row r="17">
@@ -5507,10 +5507,10 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J17" t="n">
         <v>378.1925803111715</v>
@@ -5522,10 +5522,10 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
         <v>3640.422291068009</v>
@@ -5595,19 +5595,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K18" t="n">
-        <v>427.7414352191925</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L18" t="n">
-        <v>923.0670414349511</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M18" t="n">
-        <v>1520.445529061503</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N18" t="n">
-        <v>2148.04349261611</v>
+        <v>1814.118720444889</v>
       </c>
       <c r="O18" t="n">
-        <v>2553.061288060775</v>
+        <v>2366.028450684176</v>
       </c>
       <c r="P18" t="n">
         <v>2553.061288060775</v>
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1016.58045691144</v>
+        <v>634.4644740681603</v>
       </c>
       <c r="C19" t="n">
-        <v>847.6442739835331</v>
+        <v>465.5282911402533</v>
       </c>
       <c r="D19" t="n">
-        <v>697.5276345711974</v>
+        <v>465.5282911402533</v>
       </c>
       <c r="E19" t="n">
-        <v>549.6145409888043</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="F19" t="n">
-        <v>402.7245934908939</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G19" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
@@ -5701,22 +5701,22 @@
         <v>2264.108249235165</v>
       </c>
       <c r="T19" t="n">
-        <v>2044.506784258106</v>
+        <v>2098.071953838597</v>
       </c>
       <c r="U19" t="n">
-        <v>1755.431557602304</v>
+        <v>1808.996727182795</v>
       </c>
       <c r="V19" t="n">
-        <v>1500.747069396417</v>
+        <v>1554.312238976908</v>
       </c>
       <c r="W19" t="n">
-        <v>1465.362586952987</v>
+        <v>1264.895068939947</v>
       </c>
       <c r="X19" t="n">
-        <v>1237.37303605497</v>
+        <v>1036.90551804193</v>
       </c>
       <c r="Y19" t="n">
-        <v>1016.58045691144</v>
+        <v>816.1129388984</v>
       </c>
     </row>
     <row r="20">
@@ -5738,7 +5738,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362686</v>
@@ -5747,28 +5747,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
         <v>4562.265728852255</v>
@@ -5826,31 +5826,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>245.2306927803937</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L21" t="n">
-        <v>740.5562989961525</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M21" t="n">
-        <v>1307.627092998424</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N21" t="n">
-        <v>1307.627092998424</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="O21" t="n">
-        <v>1859.536823237711</v>
+        <v>2222.001901828445</v>
       </c>
       <c r="P21" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,22 +5884,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>733.4550657171301</v>
+        <v>984.5467179762944</v>
       </c>
       <c r="C22" t="n">
-        <v>564.5188827892232</v>
+        <v>815.6105350483875</v>
       </c>
       <c r="D22" t="n">
-        <v>414.4022433768874</v>
+        <v>665.4938956360518</v>
       </c>
       <c r="E22" t="n">
-        <v>266.4891497944943</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F22" t="n">
-        <v>119.599202296584</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G22" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
         <v>93.81666304797187</v>
@@ -5932,28 +5932,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T22" t="n">
-        <v>2197.062545487567</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U22" t="n">
-        <v>1907.987318831765</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V22" t="n">
-        <v>1653.302830625878</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W22" t="n">
-        <v>1363.885660588917</v>
+        <v>1394.184733704551</v>
       </c>
       <c r="X22" t="n">
-        <v>1135.8961096909</v>
+        <v>1166.195182806534</v>
       </c>
       <c r="Y22" t="n">
-        <v>915.1035305473698</v>
+        <v>1166.195182806534</v>
       </c>
     </row>
     <row r="23">
@@ -5978,34 +5978,34 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q23" t="n">
         <v>4562.265728852255</v>
@@ -6063,31 +6063,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K24" t="n">
-        <v>245.2306927803938</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L24" t="n">
-        <v>740.5562989961526</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M24" t="n">
-        <v>1307.627092998424</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N24" t="n">
-        <v>1307.627092998424</v>
+        <v>2148.04349261611</v>
       </c>
       <c r="O24" t="n">
-        <v>1859.536823237711</v>
+        <v>2148.04349261611</v>
       </c>
       <c r="P24" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,22 +6121,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>869.9745311434716</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C25" t="n">
-        <v>701.0383482155647</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D25" t="n">
-        <v>555.8158034133954</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E25" t="n">
-        <v>407.9027098310023</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F25" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G25" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
         <v>93.81666304797187</v>
@@ -6145,52 +6145,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>2044.506784258106</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1789.822296052219</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W25" t="n">
-        <v>1500.405126015259</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X25" t="n">
-        <v>1272.415575117241</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y25" t="n">
-        <v>1051.622995973711</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="26">
@@ -6212,19 +6212,19 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H26" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
         <v>852.8523611075807</v>
@@ -6300,31 +6300,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516142</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L27" t="n">
-        <v>1074.481071167373</v>
+        <v>119.290296770379</v>
       </c>
       <c r="M27" t="n">
-        <v>1103.652278938886</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="N27" t="n">
-        <v>1731.250242493492</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O27" t="n">
-        <v>2283.159972732779</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P27" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,13 +6358,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1016.58045691144</v>
+        <v>868.6673633290469</v>
       </c>
       <c r="C28" t="n">
-        <v>847.6442739835331</v>
+        <v>699.73118040114</v>
       </c>
       <c r="D28" t="n">
-        <v>697.5276345711974</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="E28" t="n">
         <v>549.6145409888043</v>
@@ -6415,19 +6415,19 @@
         <v>2044.506784258106</v>
       </c>
       <c r="U28" t="n">
-        <v>2044.506784258106</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V28" t="n">
-        <v>1789.822296052219</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W28" t="n">
-        <v>1500.405126015258</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X28" t="n">
-        <v>1419.02150088521</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y28" t="n">
-        <v>1198.22892174168</v>
+        <v>983.3403484614387</v>
       </c>
     </row>
     <row r="29">
@@ -6461,7 +6461,7 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
         <v>852.8523611075807</v>
@@ -6470,10 +6470,10 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
         <v>3640.42229106801</v>
@@ -6537,31 +6537,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L30" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M30" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N30" t="n">
-        <v>1671.859558793925</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O30" t="n">
-        <v>2223.769289033212</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,25 +6595,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>705.9324428257312</v>
+        <v>636.6680198981028</v>
       </c>
       <c r="C31" t="n">
-        <v>705.9324428257312</v>
+        <v>467.7318369701959</v>
       </c>
       <c r="D31" t="n">
-        <v>555.8158034133954</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="E31" t="n">
-        <v>407.9027098310023</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="F31" t="n">
-        <v>261.0127623330919</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G31" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
@@ -6649,22 +6649,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2169.539922596168</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1880.464695940366</v>
+        <v>1811.200273012738</v>
       </c>
       <c r="V31" t="n">
-        <v>1625.780207734479</v>
+        <v>1556.515784806851</v>
       </c>
       <c r="W31" t="n">
-        <v>1336.363037697518</v>
+        <v>1267.09861476989</v>
       </c>
       <c r="X31" t="n">
-        <v>1108.373486799501</v>
+        <v>1039.109063871873</v>
       </c>
       <c r="Y31" t="n">
-        <v>887.5809076559709</v>
+        <v>818.3164847283425</v>
       </c>
     </row>
     <row r="32">
@@ -6689,31 +6689,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6786,19 +6786,19 @@
         <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1074.481071167373</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1702.079034721979</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>2253.988764961266</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,22 +6832,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>869.6905094135296</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="C34" t="n">
-        <v>700.7543264856228</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D34" t="n">
-        <v>550.637687073287</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E34" t="n">
-        <v>402.7245934908939</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F34" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G34" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H34" t="n">
         <v>93.81666304797187</v>
@@ -6880,28 +6880,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2044.506784258106</v>
+        <v>2002.343823311048</v>
       </c>
       <c r="U34" t="n">
-        <v>1755.431557602304</v>
+        <v>1713.268596655246</v>
       </c>
       <c r="V34" t="n">
-        <v>1755.431557602304</v>
+        <v>1458.584108449359</v>
       </c>
       <c r="W34" t="n">
-        <v>1500.121104285317</v>
+        <v>1169.166938412398</v>
       </c>
       <c r="X34" t="n">
-        <v>1272.131553387299</v>
+        <v>941.1773875143809</v>
       </c>
       <c r="Y34" t="n">
-        <v>1051.338974243769</v>
+        <v>720.3848083708508</v>
       </c>
     </row>
     <row r="35">
@@ -6935,13 +6935,13 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M35" t="n">
         <v>2206.55866301478</v>
@@ -7020,22 +7020,22 @@
         <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>579.1554649516142</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1176.533952578166</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>1804.131916132773</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>2092.798483612594</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,22 +7069,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>762.5477693179085</v>
+        <v>727.9786782557277</v>
       </c>
       <c r="C37" t="n">
-        <v>593.6115863900017</v>
+        <v>559.0424953278208</v>
       </c>
       <c r="D37" t="n">
-        <v>593.6115863900017</v>
+        <v>408.925855915485</v>
       </c>
       <c r="E37" t="n">
-        <v>549.6145409888043</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F37" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G37" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H37" t="n">
         <v>93.81666304797187</v>
@@ -7120,25 +7120,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S37" t="n">
-        <v>2264.108249235165</v>
+        <v>2411.187623003223</v>
       </c>
       <c r="T37" t="n">
-        <v>2044.506784258106</v>
+        <v>2191.586158026164</v>
       </c>
       <c r="U37" t="n">
-        <v>1755.431557602304</v>
+        <v>1902.510931370362</v>
       </c>
       <c r="V37" t="n">
-        <v>1500.747069396417</v>
+        <v>1647.826443164475</v>
       </c>
       <c r="W37" t="n">
-        <v>1211.329899359456</v>
+        <v>1358.409273127515</v>
       </c>
       <c r="X37" t="n">
-        <v>983.3403484614387</v>
+        <v>1130.419722229497</v>
       </c>
       <c r="Y37" t="n">
-        <v>762.5477693179085</v>
+        <v>909.6271430859674</v>
       </c>
     </row>
     <row r="38">
@@ -7169,19 +7169,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192592</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J38" t="n">
         <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
         <v>2950.898526355937</v>
@@ -7251,25 +7251,25 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>95.58405025273903</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>429.5088224239596</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>924.8344286397182</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>924.8344286397182</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1552.432392194325</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O39" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
         <v>2553.061288060775</v>
@@ -7306,25 +7306,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>874.8686257536381</v>
+        <v>916.3099000622261</v>
       </c>
       <c r="C40" t="n">
-        <v>705.9324428257312</v>
+        <v>747.3737171343192</v>
       </c>
       <c r="D40" t="n">
-        <v>555.8158034133954</v>
+        <v>637.9025067654818</v>
       </c>
       <c r="E40" t="n">
-        <v>407.9027098310023</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F40" t="n">
-        <v>261.0127623330919</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G40" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
@@ -7357,25 +7357,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487567</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510508</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="U40" t="n">
-        <v>1821.411327970255</v>
+        <v>2090.842153176861</v>
       </c>
       <c r="V40" t="n">
-        <v>1566.726839764368</v>
+        <v>1836.157664970974</v>
       </c>
       <c r="W40" t="n">
-        <v>1277.309669727408</v>
+        <v>1546.740494934013</v>
       </c>
       <c r="X40" t="n">
-        <v>1277.309669727408</v>
+        <v>1318.750944035996</v>
       </c>
       <c r="Y40" t="n">
-        <v>1056.517090583878</v>
+        <v>1097.958364892466</v>
       </c>
     </row>
     <row r="41">
@@ -7400,16 +7400,16 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
         <v>852.8523611075807</v>
@@ -7418,10 +7418,10 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
         <v>3640.42229106801</v>
@@ -7491,25 +7491,25 @@
         <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>245.2306927803937</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>740.5562989961525</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>740.5562989961525</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1368.154262550759</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>1920.063992790046</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2343.687142285114</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,19 +7543,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>926.9575315319322</v>
+        <v>926.9575315319328</v>
       </c>
       <c r="C43" t="n">
-        <v>782.5512955656816</v>
+        <v>782.5512955656822</v>
       </c>
       <c r="D43" t="n">
-        <v>656.9646031150022</v>
+        <v>656.9646031150028</v>
       </c>
       <c r="E43" t="n">
-        <v>533.5814564942654</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F43" t="n">
-        <v>411.2214559580113</v>
+        <v>411.2214559580114</v>
       </c>
       <c r="G43" t="n">
         <v>268.5553036345476</v>
@@ -7591,25 +7591,25 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R43" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S43" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T43" t="n">
-        <v>2243.385329532431</v>
+        <v>2243.385329532432</v>
       </c>
       <c r="U43" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V43" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594056</v>
       </c>
       <c r="W43" t="n">
-        <v>1483.79828551875</v>
+        <v>1483.798285518751</v>
       </c>
       <c r="X43" t="n">
-        <v>1280.338681582389</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y43" t="n">
         <v>1084.076049400516</v>
@@ -7643,13 +7643,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J44" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7661,7 +7661,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7725,22 +7725,22 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>95.58405025273903</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>429.5088224239596</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>924.8344286397182</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1522.21291626627</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1577.52840832642</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
         <v>2553.061288060775</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>926.9575315319322</v>
+        <v>926.9575315319327</v>
       </c>
       <c r="C46" t="n">
-        <v>782.5512955656816</v>
+        <v>782.551295565682</v>
       </c>
       <c r="D46" t="n">
-        <v>656.9646031150022</v>
+        <v>656.9646031150025</v>
       </c>
       <c r="E46" t="n">
-        <v>533.5814564942654</v>
+        <v>533.5814564942657</v>
       </c>
       <c r="F46" t="n">
-        <v>411.2214559580113</v>
+        <v>411.2214559580116</v>
       </c>
       <c r="G46" t="n">
-        <v>268.5553036345474</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H46" t="n">
         <v>151.373419438402</v>
@@ -7804,13 +7804,13 @@
         <v>93.81666304797189</v>
       </c>
       <c r="J46" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954149</v>
       </c>
       <c r="K46" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L46" t="n">
-        <v>898.2659412311324</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M46" t="n">
         <v>1344.317444979286</v>
@@ -7828,7 +7828,7 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R46" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S46" t="n">
         <v>2438.456847547834</v>
@@ -8055,13 +8055,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>30.3692565058948</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>342.9044714621886</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -8070,16 +8070,16 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>186.5911984019047</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
-        <v>20.93778120154991</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8295,13 +8295,13 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>231.2582814363242</v>
+        <v>30.36925650589444</v>
       </c>
       <c r="M6" t="n">
-        <v>273.6534998179985</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
@@ -8313,7 +8313,7 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8529,10 +8529,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8541,10 +8541,10 @@
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>249.387732507165</v>
+        <v>114.3555089013348</v>
       </c>
       <c r="O9" t="n">
-        <v>280.1079373569283</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
@@ -8553,7 +8553,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>20.9377812015499</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8942,7 +8942,7 @@
         <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
@@ -9185,7 +9185,7 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>4.263256414560601e-13</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -22553,7 +22553,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>263.9322936757916</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -22562,7 +22562,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -22598,19 +22598,19 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>0.2556346099010227</v>
       </c>
       <c r="U2" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>270.510688115631</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -22702,28 +22702,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>27.25183520130818</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -22750,10 +22750,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -22771,7 +22771,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -23261,7 +23261,7 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -23422,16 +23422,16 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23464,22 +23464,22 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>148.7507642442421</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>1.164760959906545</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23558,7 +23558,7 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -23650,7 +23650,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>114.7699989900997</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -23668,7 +23668,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>84.77391660562006</v>
       </c>
       <c r="I16" t="n">
         <v>81.26583631856553</v>
@@ -23698,13 +23698,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23887,28 +23887,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,13 +23935,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012262</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>53.02951788468619</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23950,7 +23950,7 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>251.492360717596</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -24133,16 +24133,16 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>31.71340154579414</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>139.9994244361429</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>81.26583631856553</v>
@@ -24172,13 +24172,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24193,7 +24193,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24367,22 +24367,22 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>4.845153664064753</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,7 +24409,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24418,10 +24418,10 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>57.22910392194228</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24598,7 +24598,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>66.30572490086945</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -24607,7 +24607,7 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -24655,7 +24655,7 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24664,10 +24664,10 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>145.139866510289</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24838,25 +24838,25 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24889,10 +24889,10 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>190.1580536648034</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>121.5862749664512</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -25075,7 +25075,7 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -25084,13 +25084,13 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
         <v>81.26583631856553</v>
@@ -25120,22 +25120,22 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>24.63391537253457</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>33.76564955277397</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25309,25 +25309,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>102.8768876993838</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
         <v>81.26583631856553</v>
@@ -25360,7 +25360,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>145.6085800303776</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25552,7 +25552,7 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>40.2389747530633</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -25567,7 +25567,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25597,13 +25597,13 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>131.6952193743938</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25612,7 +25612,7 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25792,7 +25792,7 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>-4.831690603168681e-13</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -26311,31 +26311,31 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>251542.9259350418</v>
+        <v>251542.9259350417</v>
       </c>
       <c r="C2" t="n">
-        <v>287364.6194524994</v>
+        <v>287364.6194524991</v>
       </c>
       <c r="D2" t="n">
-        <v>287364.6194524992</v>
+        <v>287364.6194524993</v>
       </c>
       <c r="E2" t="n">
         <v>282501.3098915021</v>
       </c>
       <c r="F2" t="n">
-        <v>282501.3098915022</v>
+        <v>282501.3098915021</v>
       </c>
       <c r="G2" t="n">
         <v>282501.3098915022</v>
       </c>
       <c r="H2" t="n">
-        <v>282501.3098915023</v>
+        <v>282501.3098915021</v>
       </c>
       <c r="I2" t="n">
-        <v>282501.3098915023</v>
+        <v>282501.3098915021</v>
       </c>
       <c r="J2" t="n">
-        <v>282501.3098915023</v>
+        <v>282501.3098915022</v>
       </c>
       <c r="K2" t="n">
         <v>282501.3098915021</v>
@@ -26347,13 +26347,13 @@
         <v>282501.3098915021</v>
       </c>
       <c r="N2" t="n">
-        <v>282501.3098915022</v>
+        <v>282501.3098915021</v>
       </c>
       <c r="O2" t="n">
         <v>287364.6194524992</v>
       </c>
       <c r="P2" t="n">
-        <v>287364.6194524993</v>
+        <v>287364.6194524992</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1114751.783575919</v>
+        <v>1114751.78357592</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>507485.4416245457</v>
+        <v>507485.4416245458</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26384,10 +26384,10 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>1.711553068162175e-10</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>167605.1778099824</v>
+        <v>167605.1778099826</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,7 +26396,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>132607.2937289266</v>
+        <v>132607.2937289267</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,7 +26415,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>74697.16854429028</v>
+        <v>74697.16854429019</v>
       </c>
       <c r="C4" t="n">
         <v>133113.8635467443</v>
@@ -26427,19 +26427,19 @@
         <v>7507.368461719667</v>
       </c>
       <c r="F4" t="n">
+        <v>7507.368461719678</v>
+      </c>
+      <c r="G4" t="n">
+        <v>7507.368461719676</v>
+      </c>
+      <c r="H4" t="n">
         <v>7507.368461719667</v>
       </c>
-      <c r="G4" t="n">
-        <v>7507.368461719667</v>
-      </c>
-      <c r="H4" t="n">
-        <v>7507.368461719688</v>
-      </c>
       <c r="I4" t="n">
-        <v>7507.368461719667</v>
+        <v>7507.368461719689</v>
       </c>
       <c r="J4" t="n">
-        <v>7507.368461719667</v>
+        <v>7507.368461719668</v>
       </c>
       <c r="K4" t="n">
         <v>7507.368461719667</v>
@@ -26451,10 +26451,10 @@
         <v>7507.368461719667</v>
       </c>
       <c r="N4" t="n">
-        <v>7507.368461719688</v>
+        <v>7507.368461719674</v>
       </c>
       <c r="O4" t="n">
-        <v>15498.22772481314</v>
+        <v>15498.22772481315</v>
       </c>
       <c r="P4" t="n">
         <v>15498.22772481314</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1030843.798625013</v>
+        <v>-1031099.667864423</v>
       </c>
       <c r="C6" t="n">
-        <v>61312.98346591034</v>
+        <v>61312.9834659101</v>
       </c>
       <c r="D6" t="n">
-        <v>61312.98346591016</v>
+        <v>61312.98346591022</v>
       </c>
       <c r="E6" t="n">
-        <v>-333614.0300186704</v>
+        <v>-333648.7679441061</v>
       </c>
       <c r="F6" t="n">
-        <v>173871.4116058754</v>
+        <v>173836.6736804396</v>
       </c>
       <c r="G6" t="n">
-        <v>173871.4116058754</v>
+        <v>173836.6736804397</v>
       </c>
       <c r="H6" t="n">
-        <v>173871.4116058754</v>
+        <v>173836.6736804396</v>
       </c>
       <c r="I6" t="n">
-        <v>173871.4116058754</v>
+        <v>173836.6736804396</v>
       </c>
       <c r="J6" t="n">
-        <v>6266.233795893117</v>
+        <v>6231.495870457162</v>
       </c>
       <c r="K6" t="n">
-        <v>173871.4116058754</v>
+        <v>173836.6736804396</v>
       </c>
       <c r="L6" t="n">
-        <v>173871.4116058753</v>
+        <v>173836.6736804396</v>
       </c>
       <c r="M6" t="n">
-        <v>41264.11787694869</v>
+        <v>41229.37995151294</v>
       </c>
       <c r="N6" t="n">
-        <v>173871.4116058754</v>
+        <v>173836.6736804396</v>
       </c>
       <c r="O6" t="n">
         <v>149274.5578801389</v>
       </c>
       <c r="P6" t="n">
-        <v>168702.2758737707</v>
+        <v>168702.2758737706</v>
       </c>
     </row>
   </sheetData>
@@ -26722,10 +26722,10 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="P2" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
     </row>
     <row r="3">
@@ -26735,10 +26735,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175392</v>
       </c>
       <c r="C3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175392</v>
       </c>
       <c r="D3" t="n">
         <v>934.0648921175392</v>
@@ -26787,10 +26787,10 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>640.5848321000389</v>
+      </c>
+      <c r="C4" t="n">
         <v>640.5848321000387</v>
-      </c>
-      <c r="C4" t="n">
-        <v>640.5848321000389</v>
       </c>
       <c r="D4" t="n">
         <v>640.5848321000389</v>
@@ -26944,7 +26944,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175392</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26978,7 +26978,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>532.1234559996093</v>
+        <v>532.1234559996095</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996093</v>
+        <v>532.1234559996095</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996093</v>
+        <v>532.1234559996095</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27379,25 +27379,25 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>199.2098178837935</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27436,13 +27436,13 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>99.22041256283808</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27537,7 +27537,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27546,13 +27546,13 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
-        <v>147.2515091551289</v>
+        <v>23.21420528795829</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -27585,10 +27585,10 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -27597,13 +27597,13 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27616,25 +27616,25 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>181.3513050034673</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27667,16 +27667,16 @@
         <v>123.4522153987944</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U5" t="n">
         <v>251.045250128462</v>
       </c>
       <c r="V5" t="n">
-        <v>322.6593948209736</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -27771,28 +27771,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>68.46116002981402</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>147.2515091551289</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27828,19 +27828,19 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>53.86222851038491</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27850,22 +27850,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>273.0879422248378</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>397.5172155601471</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -27904,13 +27904,13 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>251.045250128462</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -28017,19 +28017,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H10" t="n">
-        <v>147.2515091551288</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>104.7965952039006</v>
+        <v>87.50535582176809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28059,16 +28059,16 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>158.3651319611271</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -28077,7 +28077,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28096,7 +28096,7 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>3.979039320256561e-13</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -28263,7 +28263,7 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>-1.319714707885093e-12</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -28330,7 +28330,7 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -28561,7 +28561,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -28801,7 +28801,7 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -29104,7 +29104,7 @@
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
     </row>
     <row r="24">
@@ -30223,7 +30223,7 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
@@ -30235,7 +30235,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>1.70530256582424e-13</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -30457,7 +30457,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="C43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="D43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="E43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="F43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="G43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="H43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="I43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="J43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="K43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="L43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="M43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="N43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="O43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="P43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Q43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="R43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="S43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="T43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="U43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="V43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="W43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="X43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Y43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="C46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="D46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="E46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="F46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="G46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="H46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="I46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="J46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="K46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="L46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="M46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="N46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="O46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="P46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Q46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="R46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="S46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="T46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="U46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="V46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="W46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="X46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Y46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
     </row>
   </sheetData>
@@ -31042,43 +31042,43 @@
         <v>3.755034742181059</v>
       </c>
       <c r="H2" t="n">
-        <v>38.45624955336178</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I2" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J2" t="n">
-        <v>318.7038799491899</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K2" t="n">
-        <v>477.6545005857142</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L2" t="n">
-        <v>592.5726450767379</v>
+        <v>592.572645076738</v>
       </c>
       <c r="M2" t="n">
-        <v>659.3512441730003</v>
+        <v>659.3512441730004</v>
       </c>
       <c r="N2" t="n">
-        <v>670.0202366342223</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O2" t="n">
-        <v>632.6811099166594</v>
+        <v>632.6811099166595</v>
       </c>
       <c r="P2" t="n">
-        <v>539.9786897190644</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q2" t="n">
-        <v>405.5015080147051</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R2" t="n">
-        <v>235.8772011235311</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S2" t="n">
-        <v>85.56785418745096</v>
+        <v>85.56785418745098</v>
       </c>
       <c r="T2" t="n">
-        <v>16.43766458389759</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U2" t="n">
         <v>0.3004027793744847</v>
@@ -31121,10 +31121,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H3" t="n">
-        <v>19.4038763438002</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I3" t="n">
-        <v>69.17367361436493</v>
+        <v>69.17367361436494</v>
       </c>
       <c r="J3" t="n">
         <v>189.8178475575841</v>
@@ -31133,7 +31133,7 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L3" t="n">
-        <v>436.2347404177243</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M3" t="n">
         <v>509.0653662040588</v>
@@ -31142,25 +31142,25 @@
         <v>522.5388116762072</v>
       </c>
       <c r="O3" t="n">
-        <v>478.0209264405674</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P3" t="n">
         <v>383.6539365378625</v>
       </c>
       <c r="Q3" t="n">
-        <v>256.462496416876</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R3" t="n">
-        <v>124.741722762414</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S3" t="n">
-        <v>37.31853601997901</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T3" t="n">
-        <v>8.098166376000171</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1321789941675763</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31203,7 +31203,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I4" t="n">
-        <v>50.6538797233577</v>
+        <v>50.65387972335771</v>
       </c>
       <c r="J4" t="n">
         <v>119.0856174753787</v>
@@ -31218,10 +31218,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N4" t="n">
-        <v>257.7559726067958</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O4" t="n">
-        <v>238.0793597154672</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P4" t="n">
         <v>203.7180217169137</v>
@@ -31233,13 +31233,13 @@
         <v>75.73581895759585</v>
       </c>
       <c r="S4" t="n">
-        <v>29.35413767523478</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T4" t="n">
-        <v>7.196893431069561</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U4" t="n">
-        <v>0.09187523529024984</v>
+        <v>0.09187523529024985</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31279,43 +31279,43 @@
         <v>3.755034742181059</v>
       </c>
       <c r="H5" t="n">
-        <v>38.45624955336178</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I5" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J5" t="n">
-        <v>318.7038799491899</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K5" t="n">
-        <v>477.6545005857142</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L5" t="n">
-        <v>592.5726450767379</v>
+        <v>592.572645076738</v>
       </c>
       <c r="M5" t="n">
-        <v>659.3512441730003</v>
+        <v>659.3512441730004</v>
       </c>
       <c r="N5" t="n">
-        <v>670.0202366342223</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O5" t="n">
-        <v>632.6811099166594</v>
+        <v>632.6811099166595</v>
       </c>
       <c r="P5" t="n">
-        <v>539.9786897190644</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q5" t="n">
-        <v>405.5015080147051</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R5" t="n">
-        <v>235.8772011235311</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S5" t="n">
-        <v>85.56785418745096</v>
+        <v>85.56785418745098</v>
       </c>
       <c r="T5" t="n">
-        <v>16.43766458389759</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U5" t="n">
         <v>0.3004027793744847</v>
@@ -31358,10 +31358,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H6" t="n">
-        <v>19.4038763438002</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I6" t="n">
-        <v>69.17367361436493</v>
+        <v>69.17367361436494</v>
       </c>
       <c r="J6" t="n">
         <v>189.8178475575841</v>
@@ -31370,7 +31370,7 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L6" t="n">
-        <v>436.2347404177243</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M6" t="n">
         <v>509.0653662040588</v>
@@ -31379,25 +31379,25 @@
         <v>522.5388116762072</v>
       </c>
       <c r="O6" t="n">
-        <v>478.0209264405674</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P6" t="n">
         <v>383.6539365378625</v>
       </c>
       <c r="Q6" t="n">
-        <v>256.462496416876</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R6" t="n">
-        <v>124.741722762414</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S6" t="n">
-        <v>37.31853601997901</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T6" t="n">
-        <v>8.098166376000171</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1321789941675763</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31440,7 +31440,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I7" t="n">
-        <v>50.6538797233577</v>
+        <v>50.65387972335771</v>
       </c>
       <c r="J7" t="n">
         <v>119.0856174753787</v>
@@ -31455,10 +31455,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N7" t="n">
-        <v>257.7559726067958</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O7" t="n">
-        <v>238.0793597154672</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P7" t="n">
         <v>203.7180217169137</v>
@@ -31470,13 +31470,13 @@
         <v>75.73581895759585</v>
       </c>
       <c r="S7" t="n">
-        <v>29.35413767523478</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T7" t="n">
-        <v>7.196893431069561</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U7" t="n">
-        <v>0.09187523529024984</v>
+        <v>0.09187523529024985</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31838,22 +31838,22 @@
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>282.8216163968503</v>
       </c>
       <c r="N12" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>225.4828684302377</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
         <v>561.8765786214698</v>
@@ -32081,13 +32081,13 @@
         <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>164.2853229338207</v>
       </c>
       <c r="M15" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>526.2989357561996</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
         <v>700.0808204437243</v>
@@ -32096,7 +32096,7 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
@@ -32315,7 +32315,7 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
         <v>638.8832749473072</v>
@@ -32327,10 +32327,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>551.7051287319853</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
-        <v>133.9744074143302</v>
+        <v>322.8964653704906</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
@@ -32491,7 +32491,7 @@
         <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
         <v>345.4516222043725</v>
@@ -32546,19 +32546,19 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>714.932815742495</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
         <v>131.3417120833333</v>
@@ -32567,13 +32567,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>468.3778278510275</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32698,7 +32698,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32710,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,49 +32777,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>714.9328157424943</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437244</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214699</v>
+        <v>543.0832917018711</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32859,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32886,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32953,7 +32953,7 @@
         <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175679</v>
       </c>
       <c r="N26" t="n">
         <v>981.2715114159425</v>
@@ -33020,19 +33020,19 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473072</v>
+        <v>164.2853229338207</v>
       </c>
       <c r="M27" t="n">
-        <v>171.5999003578897</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
         <v>765.2790490071785</v>
@@ -33041,13 +33041,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q27" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33257,7 +33257,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
@@ -33272,19 +33272,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P30" t="n">
-        <v>193.964997009853</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33506,22 +33506,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
-        <v>163.4402738502018</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33740,7 +33740,7 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
         <v>745.5466476862121</v>
@@ -33749,16 +33749,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>434.178635838203</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33971,7 +33971,7 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
         <v>475.1391886422585</v>
@@ -33980,19 +33980,19 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O39" t="n">
-        <v>489.8124929257571</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>145.679503963964</v>
@@ -34211,28 +34211,28 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>314.4610577451606</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34363,7 +34363,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
@@ -34384,7 +34384,7 @@
         <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>790.820449923651</v>
       </c>
       <c r="Q44" t="n">
         <v>593.8732233669223</v>
@@ -34445,7 +34445,7 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
         <v>475.1391886422585</v>
@@ -34457,13 +34457,13 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>187.2159464875253</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
         <v>139.9817740860215</v>
@@ -34696,31 +34696,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>137.6579754225036</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K2" t="n">
         <v>257.5646495407337</v>
       </c>
       <c r="L2" t="n">
-        <v>356.8062301067507</v>
+        <v>356.8062301067508</v>
       </c>
       <c r="M2" t="n">
-        <v>429.0050109457276</v>
+        <v>429.0050109457277</v>
       </c>
       <c r="N2" t="n">
-        <v>440.6071730376314</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O2" t="n">
-        <v>402.5828984949726</v>
+        <v>402.5828984949727</v>
       </c>
       <c r="P2" t="n">
-        <v>308.7456939637948</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q2" t="n">
-        <v>183.1958181402556</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R2" t="n">
-        <v>20.29166330939901</v>
+        <v>20.29166330939904</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,31 +34775,31 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>62.98022089091739</v>
+        <v>93.34947739681222</v>
       </c>
       <c r="K3" t="n">
-        <v>186.5874962434848</v>
+        <v>451.0527332560634</v>
       </c>
       <c r="L3" t="n">
-        <v>640.5848321000387</v>
+        <v>297.6803606378502</v>
       </c>
       <c r="M3" t="n">
-        <v>366.9313322820404</v>
+        <v>366.9313322820405</v>
       </c>
       <c r="N3" t="n">
         <v>391.1970995928739</v>
       </c>
       <c r="O3" t="n">
-        <v>522.0158803980277</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P3" t="n">
-        <v>249.6795291235322</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q3" t="n">
-        <v>116.4807223308545</v>
+        <v>326.5580100667037</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>24.58388860977092</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34854,10 +34854,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>25.72643735870592</v>
+        <v>25.72643735870594</v>
       </c>
       <c r="K4" t="n">
-        <v>173.424759342349</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L4" t="n">
         <v>278.0112915831069</v>
@@ -34866,7 +34866,7 @@
         <v>303.6179906468033</v>
       </c>
       <c r="N4" t="n">
-        <v>301.8881449860244</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O4" t="n">
         <v>262.6644876295069</v>
@@ -34875,7 +34875,7 @@
         <v>200.9965809818072</v>
       </c>
       <c r="Q4" t="n">
-        <v>54.881755458054</v>
+        <v>54.88175545805403</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,31 +34933,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>137.6579754225036</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K5" t="n">
         <v>257.5646495407337</v>
       </c>
       <c r="L5" t="n">
-        <v>356.8062301067507</v>
+        <v>356.8062301067508</v>
       </c>
       <c r="M5" t="n">
-        <v>429.0050109457276</v>
+        <v>429.0050109457277</v>
       </c>
       <c r="N5" t="n">
-        <v>440.6071730376314</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O5" t="n">
-        <v>402.5828984949726</v>
+        <v>402.5828984949727</v>
       </c>
       <c r="P5" t="n">
-        <v>308.7456939637948</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q5" t="n">
-        <v>183.1958181402556</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R5" t="n">
-        <v>20.29166330939901</v>
+        <v>20.29166330939904</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,16 +35012,16 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>62.98022089091739</v>
+        <v>62.98022089091742</v>
       </c>
       <c r="K6" t="n">
-        <v>186.5874962434848</v>
+        <v>451.0527332560634</v>
       </c>
       <c r="L6" t="n">
-        <v>528.9386420741744</v>
+        <v>328.0496171437446</v>
       </c>
       <c r="M6" t="n">
-        <v>640.5848321000389</v>
+        <v>366.9313322820405</v>
       </c>
       <c r="N6" t="n">
         <v>391.1970995928739</v>
@@ -35030,13 +35030,13 @@
         <v>335.424681996123</v>
       </c>
       <c r="P6" t="n">
-        <v>249.6795291235322</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q6" t="n">
-        <v>116.4807223308545</v>
+        <v>326.5580100667037</v>
       </c>
       <c r="R6" t="n">
-        <v>24.58388860977091</v>
+        <v>24.58388860977092</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35091,10 +35091,10 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>25.72643735870592</v>
+        <v>25.72643735870594</v>
       </c>
       <c r="K7" t="n">
-        <v>173.424759342349</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L7" t="n">
         <v>278.0112915831069</v>
@@ -35103,7 +35103,7 @@
         <v>303.6179906468033</v>
       </c>
       <c r="N7" t="n">
-        <v>301.8881449860244</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O7" t="n">
         <v>262.6644876295069</v>
@@ -35112,7 +35112,7 @@
         <v>200.9965809818072</v>
       </c>
       <c r="Q7" t="n">
-        <v>54.881755458054</v>
+        <v>54.88175545805403</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35249,10 +35249,10 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>62.98022089091742</v>
+        <v>189.0712562313263</v>
       </c>
       <c r="K9" t="n">
-        <v>186.5874962434848</v>
+        <v>451.0527332560634</v>
       </c>
       <c r="L9" t="n">
         <v>297.6803606378502</v>
@@ -35261,10 +35261,10 @@
         <v>366.9313322820405</v>
       </c>
       <c r="N9" t="n">
-        <v>640.5848321000389</v>
+        <v>505.5526084942086</v>
       </c>
       <c r="O9" t="n">
-        <v>615.5326193530514</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P9" t="n">
         <v>249.6795291235323</v>
@@ -35273,7 +35273,7 @@
         <v>116.4807223308546</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>24.58388860977092</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35486,22 +35486,22 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>140.6875824748321</v>
       </c>
       <c r="N12" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>82.88662398579324</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
         <v>427.9021712071395</v>
@@ -35662,7 +35662,7 @@
         <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q14" t="n">
         <v>371.5675334924728</v>
@@ -35729,13 +35729,13 @@
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>25.73094315394657</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>394.9572236728663</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
         <v>557.4845759992799</v>
@@ -35744,7 +35744,7 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35905,7 +35905,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35963,7 +35963,7 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
         <v>500.328895167433</v>
@@ -35975,10 +35975,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>409.1088842875408</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>188.9220579561604</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36139,7 +36139,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
         <v>129.8660843902404</v>
@@ -36194,19 +36194,19 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>572.7987818204766</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
@@ -36215,13 +36215,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>334.4034204366973</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36352,34 +36352,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,34 +36431,34 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>572.7987818204761</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.48457599928</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071396</v>
+        <v>409.1088842875408</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,22 +36513,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36601,7 +36601,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N26" t="n">
         <v>751.8584478193516</v>
@@ -36668,19 +36668,19 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>500.328895167433</v>
+        <v>25.73094315394657</v>
       </c>
       <c r="M27" t="n">
-        <v>29.46586643587134</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
         <v>633.9373369238452</v>
@@ -36689,13 +36689,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q27" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36905,7 +36905,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36920,19 +36920,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P30" t="n">
-        <v>59.99058959552271</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37154,22 +37154,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
-        <v>29.46586643587157</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37388,7 +37388,7 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
@@ -37397,16 +37397,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>291.5823913937585</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37619,7 +37619,7 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
         <v>337.2977496678996</v>
@@ -37628,19 +37628,19 @@
         <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O39" t="n">
-        <v>347.2162484813126</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37859,28 +37859,28 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>174.4792836591391</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38011,7 +38011,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
@@ -38032,7 +38032,7 @@
         <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q44" t="n">
         <v>371.5675334924728</v>
@@ -38093,7 +38093,7 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
         <v>337.2977496678996</v>
@@ -38105,13 +38105,13 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>55.87423440419198</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
